--- a/formulaires/WalidBezzaoui_Donnees.xlsx
+++ b/formulaires/WalidBezzaoui_Donnees.xlsx
@@ -1795,8 +1795,8 @@
   <dimension ref="A1:U82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="17">
         <v>0</v>
@@ -3364,18 +3364,18 @@
       </c>
       <c r="R27" s="4">
         <f t="shared" ref="R27:R37" si="8">D27+F27+H27+J27+L27+N27+P27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="19">
-        <f>R27/$R$38</f>
-        <v>0</v>
+        <f t="shared" ref="S27:S37" si="9">R27/$R$38</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" ref="T27:T37" si="9">E27+G27+I27+K27+M27+O27+Q27</f>
+        <f t="shared" ref="T27:T37" si="10">E27+G27+I27+K27+M27+O27+Q27</f>
         <v>0</v>
       </c>
       <c r="U27" s="19">
-        <f>T27/$T$38</f>
+        <f t="shared" ref="U27:U37" si="11">T27/$T$38</f>
         <v>0</v>
       </c>
     </row>
@@ -3434,15 +3434,15 @@
         <v>0</v>
       </c>
       <c r="S28" s="19">
-        <f>R28/$R$38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U28" s="19">
-        <f>T28/$T$38</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="17">
         <v>0</v>
@@ -3498,19 +3498,19 @@
       </c>
       <c r="R29" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S29" s="19">
-        <f>R29/$R$38</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="9"/>
+        <v>0.2</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="U29" s="19">
-        <f>T29/$T$38</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="11"/>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3566,15 +3566,15 @@
         <v>0</v>
       </c>
       <c r="S30" s="19">
-        <f>R30/$R$38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U30" s="19">
-        <f>T30/$T$38</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3605,10 +3605,10 @@
         <v>2</v>
       </c>
       <c r="J31" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K31" s="17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L31" s="17">
         <v>0</v>
@@ -3630,18 +3630,18 @@
       </c>
       <c r="R31" s="4">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S31" s="19">
-        <f>R31/$R$38</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="9"/>
+        <v>0.6</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="U31" s="19">
-        <f>T31/$T$38</f>
+        <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -3698,15 +3698,15 @@
         <v>0</v>
       </c>
       <c r="S32" s="19">
-        <f>R32/$R$38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U32" s="19">
-        <f>T32/$T$38</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3765,15 +3765,15 @@
         <v>0</v>
       </c>
       <c r="S33" s="19">
-        <f>R33/$R$38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U33" s="19">
-        <f>T33/$T$38</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="17">
         <v>0</v>
@@ -3829,19 +3829,19 @@
       </c>
       <c r="R34" s="4">
         <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S34" s="19">
+        <f t="shared" si="9"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="S34" s="19">
-        <f>R34/$R$38</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="T34" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
       <c r="U34" s="19">
-        <f>T34/$T$38</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3897,15 +3897,15 @@
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <f>R35/$R$38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U35" s="19">
-        <f>T35/$T$38</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3962,15 +3962,15 @@
         <v>0</v>
       </c>
       <c r="S36" s="19">
-        <f>R36/$R$38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U36" s="19">
-        <f>T36/$T$38</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4029,15 +4029,15 @@
         <v>0</v>
       </c>
       <c r="S37" s="19">
-        <f>R37/$R$38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U37" s="19">
-        <f>T37/$T$38</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4047,80 +4047,80 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8">
-        <f>SUM(C27:C37)</f>
+        <f t="shared" ref="C38:U38" si="12">SUM(C27:C37)</f>
         <v>3</v>
       </c>
       <c r="D38" s="8">
-        <f>SUM(D27:D37)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E38" s="8">
-        <f>SUM(E27:E37)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="F38" s="8">
-        <f>SUM(F27:F37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G38" s="8">
-        <f>SUM(G27:G37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H38" s="8">
-        <f>SUM(H27:H37)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I38" s="8">
-        <f>SUM(I27:I37)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="J38" s="8">
-        <f>SUM(J27:J37)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="K38" s="8">
-        <f>SUM(K27:K37)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="L38" s="8">
-        <f>SUM(L27:L37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M38" s="8">
-        <f>SUM(M27:M37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N38" s="8">
-        <f>SUM(N27:N37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O38" s="8">
-        <f>SUM(O27:O37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <f>SUM(P27:P37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q38" s="8">
-        <f>SUM(Q27:Q37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R38" s="10">
-        <f>SUM(R27:R37)</f>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="S38" s="11">
-        <f>SUM(S27:S37)</f>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="T38" s="10">
-        <f>SUM(T27:T37)</f>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="U38" s="11">
-        <f>SUM(U27:U37)</f>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" ref="R40:R50" si="10">D40+F40+H40+J40+L40+N40+P40</f>
+        <f t="shared" ref="R40:R50" si="13">D40+F40+H40+J40+L40+N40+P40</f>
         <v>0</v>
       </c>
       <c r="S40" s="19">
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" ref="T40:T50" si="11">E40+G40+I40+K40+M40+O40+Q40</f>
+        <f t="shared" ref="T40:T50" si="14">E40+G40+I40+K40+M40+O40+Q40</f>
         <v>0</v>
       </c>
       <c r="U40" s="19">
@@ -4266,19 +4266,19 @@
         <v>0</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S41" s="19">
-        <f t="shared" ref="S41:S50" si="12">R41/$R$51</f>
+        <f t="shared" ref="S41:S50" si="15">R41/$R$51</f>
         <v>0</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U41" s="19">
-        <f t="shared" ref="U41:U50" si="13">T41/$T$51</f>
+        <f t="shared" ref="U41:U50" si="16">T41/$T$51</f>
         <v>0</v>
       </c>
     </row>
@@ -4333,19 +4333,19 @@
         <v>0</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S42" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U42" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4398,19 +4398,19 @@
         <v>0</v>
       </c>
       <c r="R43" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S43" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U43" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4441,10 +4441,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="17">
         <v>0</v>
@@ -4465,20 +4465,20 @@
         <v>0</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="S44" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="U44" s="19">
-        <f t="shared" si="13"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="16"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4506,10 +4506,10 @@
         <v>1</v>
       </c>
       <c r="J45" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="17">
         <v>0</v>
@@ -4530,20 +4530,20 @@
         <v>0</v>
       </c>
       <c r="R45" s="4">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="S45" s="19">
-        <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="15"/>
+        <v>0.2</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="U45" s="19">
-        <f t="shared" si="13"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="16"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4597,20 +4597,20 @@
         <v>0</v>
       </c>
       <c r="R46" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S46" s="19">
-        <f t="shared" si="12"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="U46" s="19">
-        <f t="shared" si="13"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="16"/>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="17">
         <v>0</v>
@@ -4664,20 +4664,20 @@
         <v>0</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="S47" s="19">
+        <f t="shared" si="15"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="S47" s="19">
-        <f t="shared" si="12"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="T47" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
       <c r="U47" s="19">
-        <f t="shared" si="13"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="16"/>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4705,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" s="17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L48" s="17">
         <v>0</v>
@@ -4729,20 +4729,20 @@
         <v>0</v>
       </c>
       <c r="R48" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="S48" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="U48" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4770,10 +4770,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="17">
         <v>0</v>
@@ -4794,20 +4794,20 @@
         <v>0</v>
       </c>
       <c r="R49" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="S49" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="U49" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="50" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4861,19 +4861,19 @@
         <v>0</v>
       </c>
       <c r="R50" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S50" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U50" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4883,68 +4883,68 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8">
-        <f t="shared" ref="C51:Q51" si="14">SUM(C40:C50)</f>
+        <f t="shared" ref="C51:Q51" si="17">SUM(C40:C50)</f>
         <v>3</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" ref="H51:I51" si="15">SUM(H40:H50)</f>
+        <f t="shared" ref="H51:I51" si="18">SUM(H40:H50)</f>
         <v>3</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="J51" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>9</v>
       </c>
       <c r="K51" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>9</v>
       </c>
       <c r="L51" s="8">
-        <f t="shared" ref="L51:O51" si="16">SUM(L40:L50)</f>
+        <f t="shared" ref="L51:O51" si="19">SUM(L40:L50)</f>
         <v>0</v>
       </c>
       <c r="M51" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N51" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R51" s="10">
         <f>SUM(R40:R50)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S51" s="11">
         <f>SUM(S40:S50)</f>
@@ -4952,11 +4952,11 @@
       </c>
       <c r="T51" s="10">
         <f>SUM(T40:T50)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="U51" s="11">
         <f>SUM(U40:U50)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5010,59 +5010,59 @@
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="23">
-        <f>D10/D25</f>
+        <f t="shared" ref="D54:Q54" si="20">D10/D25</f>
         <v>1.68</v>
       </c>
       <c r="E54" s="23">
-        <f>E10/E25</f>
+        <f t="shared" si="20"/>
         <v>1.6521739130434783</v>
       </c>
       <c r="F54" s="23" t="e">
-        <f>F10/F25</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G54" s="23" t="e">
-        <f>G10/G25</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H54" s="23">
-        <f>H10/H25</f>
+        <f t="shared" si="20"/>
         <v>1.8064516129032258</v>
       </c>
       <c r="I54" s="23">
-        <f>I10/I25</f>
+        <f t="shared" si="20"/>
         <v>2.0467836257309941</v>
       </c>
       <c r="J54" s="23">
-        <f>J10/J25</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K54" s="23">
-        <f>K10/K25</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L54" s="23" t="e">
-        <f>L10/L25</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M54" s="23" t="e">
-        <f>M10/M25</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N54" s="23" t="e">
-        <f>N10/N25</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="23" t="e">
-        <f>O10/O25</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P54" s="23" t="e">
-        <f>P10/P25</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="23" t="e">
-        <f>Q10/Q25</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R54" s="18"/>
@@ -5077,59 +5077,59 @@
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="23">
-        <f>D9/D25</f>
+        <f t="shared" ref="D55:Q55" si="21">D9/D25</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="E55" s="23">
-        <f>E9/E25</f>
+        <f t="shared" si="21"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F55" s="23" t="e">
-        <f>F9/F25</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G55" s="23" t="e">
-        <f>G9/G25</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H55" s="23">
-        <f>H9/H25</f>
+        <f t="shared" si="21"/>
         <v>1.1612903225806452</v>
       </c>
       <c r="I55" s="23">
-        <f>I9/I25</f>
+        <f t="shared" si="21"/>
         <v>1.432748538011696</v>
       </c>
       <c r="J55" s="23">
-        <f>J9/J25</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K55" s="23">
-        <f>K9/K25</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L55" s="23" t="e">
-        <f>L9/L25</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M55" s="23" t="e">
-        <f>M9/M25</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N55" s="23" t="e">
-        <f>N9/N25</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O55" s="23" t="e">
-        <f>O9/O25</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P55" s="23" t="e">
-        <f>P9/P25</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" s="23" t="e">
-        <f>Q9/Q25</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R55" s="18"/>
@@ -5351,59 +5351,59 @@
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="23">
-        <f>D38/D25</f>
+        <f t="shared" ref="D62:Q62" si="22">D38/D25</f>
         <v>2.4E-2</v>
       </c>
       <c r="E62" s="23">
-        <f>E38/E25</f>
+        <f t="shared" si="22"/>
         <v>2.6086956521739129E-2</v>
       </c>
       <c r="F62" s="23" t="e">
-        <f>F38/F25</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="23" t="e">
-        <f>G38/G25</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="23">
-        <f>H38/H25</f>
+        <f t="shared" si="22"/>
         <v>1.935483870967742E-2</v>
       </c>
       <c r="I62" s="23">
-        <f>I38/I25</f>
+        <f t="shared" si="22"/>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="J62" s="23">
-        <f>J38/J25</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>4.8648648648648651E-2</v>
       </c>
       <c r="K62" s="23">
-        <f>K38/K25</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>4.9450549450549448E-2</v>
       </c>
       <c r="L62" s="23" t="e">
-        <f>L38/L25</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="23" t="e">
-        <f>M38/M25</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="23" t="e">
-        <f>N38/N25</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="23" t="e">
-        <f>O38/O25</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P62" s="23" t="e">
-        <f>P38/P25</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="23" t="e">
-        <f>Q38/Q25</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R62" s="18"/>
@@ -5418,59 +5418,59 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="23">
-        <f>D27/D25</f>
+        <f t="shared" ref="D63:Q63" si="23">D27/D25</f>
         <v>0</v>
       </c>
       <c r="E63" s="23">
-        <f>E27/E25</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F63" s="23" t="e">
-        <f>F27/F25</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="23" t="e">
-        <f>G27/G25</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="23">
-        <f>H27/H25</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I63" s="23">
-        <f>I27/I25</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J63" s="23">
-        <f>J27/J25</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5.4054054054054057E-3</v>
       </c>
       <c r="K63" s="23">
-        <f>K27/K25</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L63" s="23" t="e">
-        <f>L27/L25</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="23" t="e">
-        <f>M27/M25</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="23" t="e">
-        <f>N27/N25</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="23" t="e">
-        <f>O27/O25</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P63" s="23" t="e">
-        <f>P27/P25</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q63" s="23" t="e">
-        <f>Q27/Q25</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R63" s="18"/>
@@ -5485,59 +5485,59 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="23" t="e">
-        <f>D27/D13</f>
+        <f t="shared" ref="D64:Q64" si="24">D27/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E64" s="23">
-        <f>E27/E13</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F64" s="23" t="e">
-        <f>F27/F13</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G64" s="23" t="e">
-        <f>G27/G13</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="23" t="e">
-        <f>H27/H13</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I64" s="23">
-        <f>I27/I13</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J64" s="23" t="e">
-        <f>J27/J13</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K64" s="23">
-        <f>K27/K13</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L64" s="23" t="e">
-        <f>L27/L13</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M64" s="23" t="e">
-        <f>M27/M13</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N64" s="23" t="e">
-        <f>N27/N13</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O64" s="23" t="e">
-        <f>O27/O13</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P64" s="23" t="e">
-        <f>P27/P13</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q64" s="23" t="e">
-        <f>Q27/Q13</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R64" s="18"/>
@@ -5552,59 +5552,59 @@
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="23">
-        <f>D29/D25</f>
+        <f t="shared" ref="D65:Q65" si="25">D29/D25</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E65" s="23">
-        <f>E29/E25</f>
+        <f t="shared" si="25"/>
         <v>8.6956521739130436E-3</v>
       </c>
       <c r="F65" s="23" t="e">
-        <f>F29/F25</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G65" s="23" t="e">
-        <f>G29/G25</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="23">
-        <f>H29/H25</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I65" s="23">
-        <f>I29/I25</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J65" s="23">
-        <f>J29/J25</f>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1.0810810810810811E-2</v>
       </c>
       <c r="K65" s="23">
-        <f>K29/K25</f>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="L65" s="23" t="e">
-        <f>L29/L25</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M65" s="23" t="e">
-        <f>M29/M25</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N65" s="23" t="e">
-        <f>N29/N25</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O65" s="23" t="e">
-        <f>O29/O25</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P65" s="23" t="e">
-        <f>P29/P25</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q65" s="23" t="e">
-        <f>Q29/Q25</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R65" s="18"/>
@@ -5619,59 +5619,59 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="23">
-        <f>D29/D15</f>
+        <f t="shared" ref="D66:Q66" si="26">D29/D15</f>
         <v>0.05</v>
       </c>
       <c r="E66" s="23">
-        <f>E29/E15</f>
+        <f t="shared" si="26"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="F66" s="23" t="e">
-        <f>F29/F15</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G66" s="23" t="e">
-        <f>G29/G15</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H66" s="23">
-        <f>H29/H15</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I66" s="23">
-        <f>I29/I15</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J66" s="23">
-        <f>J29/J15</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="K66" s="23">
-        <f>K29/K15</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L66" s="23" t="e">
-        <f>L29/L15</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M66" s="23" t="e">
-        <f>M29/M15</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N66" s="23" t="e">
-        <f>N29/N15</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O66" s="23" t="e">
-        <f>O29/O15</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P66" s="23" t="e">
-        <f>P29/P15</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="23" t="e">
-        <f>Q29/Q15</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R66" s="18"/>
@@ -5686,59 +5686,59 @@
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="23">
-        <f>D31/D25</f>
+        <f t="shared" ref="D67:Q67" si="27">D31/D25</f>
         <v>1.6E-2</v>
       </c>
       <c r="E67" s="23">
-        <f>E31/E25</f>
+        <f t="shared" si="27"/>
         <v>1.7391304347826087E-2</v>
       </c>
       <c r="F67" s="23" t="e">
-        <f>F31/F25</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G67" s="23" t="e">
-        <f>G31/G25</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H67" s="23">
-        <f>H31/H25</f>
+        <f t="shared" si="27"/>
         <v>1.2903225806451613E-2</v>
       </c>
       <c r="I67" s="23">
-        <f>I31/I25</f>
+        <f t="shared" si="27"/>
         <v>1.1695906432748537E-2</v>
       </c>
       <c r="J67" s="23">
-        <f>J31/J25</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="K67" s="23">
-        <f>K31/K25</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>3.2967032967032968E-2</v>
       </c>
       <c r="L67" s="23" t="e">
-        <f>L31/L25</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M67" s="23" t="e">
-        <f>M31/M25</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N67" s="23" t="e">
-        <f>N31/N25</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O67" s="23" t="e">
-        <f>O31/O25</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P67" s="23" t="e">
-        <f>P31/P25</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q67" s="23" t="e">
-        <f>Q31/Q25</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R67" s="18"/>
@@ -5753,59 +5753,59 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="23">
-        <f>D31/D17</f>
+        <f t="shared" ref="D68:Q68" si="28">D31/D17</f>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="E68" s="23">
-        <f>E31/E17</f>
+        <f t="shared" si="28"/>
         <v>0.05</v>
       </c>
       <c r="F68" s="23" t="e">
-        <f>F31/F17</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G68" s="23" t="e">
-        <f>G31/G17</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H68" s="23">
-        <f>H31/H17</f>
+        <f t="shared" si="28"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="I68" s="23">
-        <f>I31/I17</f>
+        <f t="shared" si="28"/>
         <v>0.05</v>
       </c>
       <c r="J68" s="23">
-        <f>J31/J17</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K68" s="23">
-        <f>K31/K17</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="L68" s="23" t="e">
-        <f>L31/L17</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M68" s="23" t="e">
-        <f>M31/M17</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N68" s="23" t="e">
-        <f>N31/N17</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O68" s="23" t="e">
-        <f>O31/O17</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P68" s="23" t="e">
-        <f>P31/P17</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q68" s="23" t="e">
-        <f>Q31/Q17</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R68" s="18"/>
@@ -5843,59 +5843,59 @@
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="23">
-        <f>D38/D10</f>
+        <f t="shared" ref="D70:Q70" si="29">D38/D10</f>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="E70" s="23">
-        <f>E38/E10</f>
+        <f t="shared" si="29"/>
         <v>1.5789473684210527E-2</v>
       </c>
       <c r="F70" s="23" t="e">
-        <f>F38/F10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G70" s="23" t="e">
-        <f>G38/G10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H70" s="23">
-        <f>H38/H10</f>
+        <f t="shared" si="29"/>
         <v>1.0714285714285714E-2</v>
       </c>
       <c r="I70" s="23">
-        <f>I38/I10</f>
+        <f t="shared" si="29"/>
         <v>8.5714285714285719E-3</v>
       </c>
       <c r="J70" s="23" t="e">
-        <f>J38/J10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K70" s="23" t="e">
-        <f>K38/K10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L70" s="23" t="e">
-        <f>L38/L10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M70" s="23" t="e">
-        <f>M38/M10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N70" s="23" t="e">
-        <f>N38/N10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O70" s="23" t="e">
-        <f>O38/O10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P70" s="23" t="e">
-        <f>P38/P10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q70" s="23" t="e">
-        <f>Q38/Q10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R70" s="18"/>
@@ -5910,59 +5910,59 @@
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="23">
-        <f>D9/D25</f>
+        <f t="shared" ref="D71:Q71" si="30">D9/D25</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="E71" s="23">
-        <f>E9/E25</f>
+        <f t="shared" si="30"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F71" s="23" t="e">
-        <f>F9/F25</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="23" t="e">
-        <f>G9/G25</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H71" s="23">
-        <f>H9/H25</f>
+        <f t="shared" si="30"/>
         <v>1.1612903225806452</v>
       </c>
       <c r="I71" s="23">
-        <f>I9/I25</f>
+        <f t="shared" si="30"/>
         <v>1.432748538011696</v>
       </c>
       <c r="J71" s="23">
-        <f>J9/J25</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K71" s="23">
-        <f>K9/K25</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L71" s="23" t="e">
-        <f>L9/L25</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M71" s="23" t="e">
-        <f>M9/M25</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N71" s="23" t="e">
-        <f>N9/N25</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O71" s="23" t="e">
-        <f>O9/O25</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P71" s="23" t="e">
-        <f>P9/P25</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q71" s="23" t="e">
-        <f>Q9/Q25</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R71" s="18"/>
@@ -5977,59 +5977,59 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="23">
-        <f>D31/D10</f>
+        <f t="shared" ref="D72:Q72" si="31">D31/D10</f>
         <v>9.5238095238095247E-3</v>
       </c>
       <c r="E72" s="23">
-        <f>E31/E10</f>
+        <f t="shared" si="31"/>
         <v>1.0526315789473684E-2</v>
       </c>
       <c r="F72" s="23" t="e">
-        <f>F31/F10</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="23" t="e">
-        <f>G31/G10</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H72" s="23">
-        <f>H31/H10</f>
+        <f t="shared" si="31"/>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="I72" s="23">
-        <f>I31/I10</f>
+        <f t="shared" si="31"/>
         <v>5.7142857142857143E-3</v>
       </c>
       <c r="J72" s="23" t="e">
-        <f>J31/J10</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K72" s="23" t="e">
-        <f>K31/K10</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L72" s="23" t="e">
-        <f>L31/L10</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M72" s="23" t="e">
-        <f>M31/M10</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N72" s="23" t="e">
-        <f>N31/N10</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O72" s="23" t="e">
-        <f>O31/O10</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P72" s="23" t="e">
-        <f>P31/P10</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q72" s="23" t="e">
-        <f>Q31/Q10</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R72" s="18"/>
@@ -6044,59 +6044,59 @@
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="23">
-        <f>D31/D9</f>
+        <f t="shared" ref="D73:Q73" si="32">D31/D9</f>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="E73" s="23">
-        <f>E31/E9</f>
+        <f t="shared" si="32"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="F73" s="23" t="e">
-        <f>F31/F9</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="23" t="e">
-        <f>G31/G9</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H73" s="23">
-        <f>H31/H9</f>
+        <f t="shared" si="32"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="I73" s="23">
-        <f>I31/I9</f>
+        <f t="shared" si="32"/>
         <v>8.1632653061224497E-3</v>
       </c>
       <c r="J73" s="23" t="e">
-        <f>J31/J9</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K73" s="23" t="e">
-        <f>K31/K9</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L73" s="23" t="e">
-        <f>L31/L9</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M73" s="23" t="e">
-        <f>M31/M9</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N73" s="23" t="e">
-        <f>N31/N9</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O73" s="23" t="e">
-        <f>O31/O9</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P73" s="23" t="e">
-        <f>P31/P9</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q73" s="23" t="e">
-        <f>Q31/Q9</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R73" s="18"/>
@@ -6158,59 +6158,59 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="23">
-        <f>D51/D25</f>
+        <f t="shared" ref="D76:Q76" si="33">D51/D25</f>
         <v>2.4E-2</v>
       </c>
       <c r="E76" s="23">
-        <f>E51/E25</f>
+        <f t="shared" si="33"/>
         <v>2.6086956521739129E-2</v>
       </c>
       <c r="F76" s="23" t="e">
-        <f>F51/F25</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G76" s="23" t="e">
-        <f>G51/G25</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H76" s="23">
-        <f>H51/H25</f>
+        <f t="shared" si="33"/>
         <v>1.935483870967742E-2</v>
       </c>
       <c r="I76" s="23">
-        <f>I51/I25</f>
+        <f t="shared" si="33"/>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="J76" s="23">
-        <f>J51/J25</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>4.8648648648648651E-2</v>
       </c>
       <c r="K76" s="23">
-        <f>K51/K25</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>4.9450549450549448E-2</v>
       </c>
       <c r="L76" s="23" t="e">
-        <f>L51/L25</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M76" s="23" t="e">
-        <f>M51/M25</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N76" s="23" t="e">
-        <f>N51/N25</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O76" s="23" t="e">
-        <f>O51/O25</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P76" s="23" t="e">
-        <f>P51/P25</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q76" s="23" t="e">
-        <f>Q51/Q25</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R76" s="18"/>
@@ -6225,59 +6225,59 @@
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="23">
-        <f>D43/D16</f>
+        <f t="shared" ref="D77:Q77" si="34">D43/D16</f>
         <v>0</v>
       </c>
       <c r="E77" s="23">
-        <f>E43/E16</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F77" s="23" t="e">
-        <f>F43/F16</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G77" s="23" t="e">
-        <f>G43/G16</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H77" s="23">
-        <f>H43/H16</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I77" s="23">
-        <f>I43/I16</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J77" s="23">
-        <f>J43/J16</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K77" s="23">
-        <f>K43/K16</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L77" s="23" t="e">
-        <f>L43/L16</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M77" s="23" t="e">
-        <f>M43/M16</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N77" s="23" t="e">
-        <f>N43/N16</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O77" s="23" t="e">
-        <f>O43/O16</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P77" s="23" t="e">
-        <f>P43/P16</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q77" s="23" t="e">
-        <f>Q43/Q16</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R77" s="18"/>
@@ -6292,59 +6292,59 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="23">
-        <f>D45/D18</f>
+        <f t="shared" ref="D78:Q78" si="35">D45/D18</f>
         <v>0.2</v>
       </c>
       <c r="E78" s="23">
-        <f>E45/E18</f>
+        <f t="shared" si="35"/>
         <v>0.25</v>
       </c>
       <c r="F78" s="23" t="e">
-        <f>F45/F18</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G78" s="23" t="e">
-        <f>G45/G18</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H78" s="23">
-        <f>H45/H18</f>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="I78" s="23">
-        <f>I45/I18</f>
+        <f t="shared" si="35"/>
         <v>0.125</v>
       </c>
       <c r="J78" s="23">
-        <f>J45/J18</f>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>0.1</v>
       </c>
       <c r="K78" s="23">
-        <f>K45/K18</f>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L78" s="23" t="e">
-        <f>L45/L18</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M78" s="23" t="e">
-        <f>M45/M18</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N78" s="23" t="e">
-        <f>N45/N18</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O78" s="23" t="e">
-        <f>O45/O18</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P78" s="23" t="e">
-        <f>P45/P18</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q78" s="23" t="e">
-        <f>Q45/Q18</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R78" s="18"/>
@@ -6359,59 +6359,59 @@
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="23">
-        <f>D46/D19</f>
+        <f t="shared" ref="D79:Q79" si="36">D46/D19</f>
         <v>0</v>
       </c>
       <c r="E79" s="23">
-        <f>E46/E19</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F79" s="23" t="e">
-        <f>F46/F19</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G79" s="23" t="e">
-        <f>G46/G19</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H79" s="23">
-        <f>H46/H19</f>
+        <f t="shared" si="36"/>
         <v>0.1</v>
       </c>
       <c r="I79" s="23">
-        <f>I46/I19</f>
+        <f t="shared" si="36"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="J79" s="23" t="e">
-        <f>J46/J19</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K79" s="23" t="e">
-        <f>K46/K19</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L79" s="23" t="e">
-        <f>L46/L19</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M79" s="23" t="e">
-        <f>M46/M19</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N79" s="23" t="e">
-        <f>N46/N19</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O79" s="23" t="e">
-        <f>O46/O19</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P79" s="23" t="e">
-        <f>P46/P19</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q79" s="23" t="e">
-        <f>Q46/Q19</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R79" s="18"/>
@@ -6424,59 +6424,59 @@
         <v>44</v>
       </c>
       <c r="D80" s="24">
-        <f>D47/D20</f>
+        <f t="shared" ref="D80:Q80" si="37">D47/D20</f>
         <v>0</v>
       </c>
       <c r="E80" s="24">
-        <f>E47/E20</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F80" s="24" t="e">
-        <f>F47/F20</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G80" s="24" t="e">
-        <f>G47/G20</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H80" s="24">
-        <f>H47/H20</f>
+        <f t="shared" si="37"/>
         <v>0.05</v>
       </c>
       <c r="I80" s="24">
-        <f>I47/I20</f>
+        <f t="shared" si="37"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J80" s="24">
-        <f>J47/J20</f>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K80" s="24">
-        <f>K47/K20</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L80" s="24" t="e">
-        <f>L47/L20</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M80" s="24" t="e">
-        <f>M47/M20</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N80" s="24" t="e">
-        <f>N47/N20</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O80" s="24" t="e">
-        <f>O47/O20</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P80" s="24" t="e">
-        <f>P47/P20</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q80" s="24" t="e">
-        <f>Q47/Q20</f>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6485,59 +6485,59 @@
         <v>45</v>
       </c>
       <c r="D81" s="24" t="e">
-        <f>D48/D21</f>
+        <f t="shared" ref="D81:Q81" si="38">D48/D21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E81" s="24" t="e">
-        <f>E48/E21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F81" s="24" t="e">
-        <f>F48/F21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G81" s="24" t="e">
-        <f>G48/G21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H81" s="24" t="e">
-        <f>H48/H21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I81" s="24" t="e">
-        <f>I48/I21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J81" s="24">
-        <f>J48/J21</f>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K81" s="24">
-        <f>K48/K21</f>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L81" s="24" t="e">
-        <f>L48/L21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M81" s="24" t="e">
-        <f>M48/M21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N81" s="24" t="e">
-        <f>N48/N21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O81" s="24" t="e">
-        <f>O48/O21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P81" s="24" t="e">
-        <f>P48/P21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q81" s="24" t="e">
-        <f>Q48/Q21</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6546,59 +6546,59 @@
         <v>46</v>
       </c>
       <c r="D82" s="24" t="e">
-        <f>D49/D22</f>
+        <f t="shared" ref="D82:Q82" si="39">D49/D22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E82" s="24" t="e">
-        <f>E49/E22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F82" s="24" t="e">
-        <f>F49/F22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G82" s="24" t="e">
-        <f>G49/G22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H82" s="24" t="e">
-        <f>H49/H22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I82" s="24" t="e">
-        <f>I49/I22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J82" s="24">
-        <f>J49/J22</f>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K82" s="24" t="e">
-        <f>K49/K22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L82" s="24" t="e">
-        <f>L49/L22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M82" s="24" t="e">
-        <f>M49/M22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N82" s="24" t="e">
-        <f>N49/N22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O82" s="24" t="e">
-        <f>O49/O22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P82" s="24" t="e">
-        <f>P49/P22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q82" s="24" t="e">
-        <f>Q49/Q22</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/formulaires/WalidBezzaoui_Donnees.xlsx
+++ b/formulaires/WalidBezzaoui_Donnees.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\LOG-330\2017\LOG330_TP05\formulaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETS\2017_LOG_330\LOG330_TP05\formulaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1795,8 +1795,8 @@
   <dimension ref="A1:U82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1954,10 +1954,10 @@
         <v>170</v>
       </c>
       <c r="J4" s="17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K4" s="17">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="L4" s="17">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>45</v>
       </c>
       <c r="J5" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K5" s="17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L5" s="17">
         <v>0</v>
@@ -2060,10 +2060,10 @@
         <v>110</v>
       </c>
       <c r="J6" s="17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K6" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L6" s="17">
         <v>0</v>
@@ -2118,11 +2118,11 @@
         <v>135</v>
       </c>
       <c r="J7" s="17">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K7" s="16">
         <f>K10-K4+K5-K8</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L7" s="17">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>90</v>
       </c>
       <c r="J8" s="17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K8" s="17">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L8" s="17">
         <v>0</v>
@@ -2200,12 +2200,12 @@
       </c>
       <c r="R8" s="4">
         <f>D8+F8+H8+J8+L8+N8+P8</f>
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="S8" s="18"/>
       <c r="T8" s="4">
         <f>E8+G8+I8+K8+M8+O8+Q8</f>
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="U8" s="18"/>
     </row>
@@ -2243,12 +2243,10 @@
         <v>245</v>
       </c>
       <c r="J9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
@@ -2276,12 +2274,12 @@
       </c>
       <c r="R9" s="4">
         <f t="shared" ref="R9:R10" si="1">D9+F9+H9+J9+L9+N9+P9</f>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="4">
         <f t="shared" ref="T9:T10" si="2">E9+G9+I9+K9+M9+O9+Q9</f>
-        <v>305</v>
+        <v>475</v>
       </c>
       <c r="U9" s="18"/>
     </row>
@@ -2317,10 +2315,10 @@
       </c>
       <c r="J10" s="16">
         <f>J9+J4-J5-J6+J8</f>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="K10" s="17">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="L10" s="16">
         <f>L9+L4-L5-L6+L8</f>
@@ -2345,12 +2343,12 @@
       </c>
       <c r="R10" s="4">
         <f t="shared" si="1"/>
-        <v>490</v>
+        <v>960</v>
       </c>
       <c r="S10" s="18"/>
       <c r="T10" s="4">
         <f t="shared" si="2"/>
-        <v>540</v>
+        <v>990</v>
       </c>
       <c r="U10" s="18"/>
     </row>
@@ -2379,10 +2377,10 @@
         <v>220</v>
       </c>
       <c r="J11" s="17">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="K11" s="17">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L11" s="17">
         <v>0</v>
@@ -2484,7 +2482,7 @@
       </c>
       <c r="U13" s="19">
         <f t="shared" ref="U13:U24" si="4">T13/$T$25</f>
-        <v>9.2636579572446559E-2</v>
+        <v>8.628318584070796E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2553,7 +2551,7 @@
       </c>
       <c r="U14" s="19">
         <f t="shared" si="4"/>
-        <v>9.5011876484560567E-2</v>
+        <v>8.8495575221238937E-2</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2622,7 +2620,7 @@
       </c>
       <c r="U15" s="19">
         <f t="shared" si="4"/>
-        <v>0.11163895486935867</v>
+        <v>0.10398230088495575</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2687,7 +2685,7 @@
       </c>
       <c r="U16" s="19">
         <f t="shared" si="4"/>
-        <v>2.8503562945368172E-2</v>
+        <v>2.6548672566371681E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2756,7 +2754,7 @@
       </c>
       <c r="U17" s="19">
         <f t="shared" si="4"/>
-        <v>0.27078384798099764</v>
+        <v>0.25221238938053098</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2821,7 +2819,7 @@
       </c>
       <c r="U18" s="19">
         <f t="shared" si="4"/>
-        <v>4.5130641330166268E-2</v>
+        <v>4.2035398230088498E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2890,7 +2888,7 @@
       </c>
       <c r="U19" s="19">
         <f t="shared" si="4"/>
-        <v>3.0878859857482184E-2</v>
+        <v>2.8761061946902654E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2959,7 +2957,7 @@
       </c>
       <c r="U20" s="19">
         <f t="shared" si="4"/>
-        <v>0.15914489311163896</v>
+        <v>0.14823008849557523</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2990,7 +2988,7 @@
         <v>30</v>
       </c>
       <c r="K21" s="17">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L21" s="17">
         <v>0</v>
@@ -3020,11 +3018,11 @@
       </c>
       <c r="T21" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="U21" s="19">
         <f t="shared" si="4"/>
-        <v>6.413301662707839E-2</v>
+        <v>9.5132743362831854E-2</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3055,7 +3053,7 @@
         <v>30</v>
       </c>
       <c r="K22" s="17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" s="17">
         <v>0</v>
@@ -3085,11 +3083,11 @@
       </c>
       <c r="T22" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U22" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.3185840707964605E-2</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3191,7 +3189,7 @@
       </c>
       <c r="U24" s="19">
         <f t="shared" si="4"/>
-        <v>0.10213776722090261</v>
+        <v>9.5132743362831854E-2</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3236,7 +3234,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" si="7"/>
@@ -3272,7 +3270,7 @@
       </c>
       <c r="T25" s="10">
         <f t="shared" si="7"/>
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="U25" s="11">
         <f t="shared" si="7"/>
@@ -5035,11 +5033,11 @@
       </c>
       <c r="J54" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.5405405405405403</v>
       </c>
       <c r="K54" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="L54" s="23" t="e">
         <f t="shared" si="20"/>
@@ -5102,11 +5100,11 @@
       </c>
       <c r="J55" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.0810810810810811</v>
       </c>
       <c r="K55" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.7981220657276995</v>
       </c>
       <c r="L55" s="23" t="e">
         <f t="shared" si="21"/>
@@ -5183,7 +5181,7 @@
       <c r="J57" s="16"/>
       <c r="K57" s="23">
         <f>K25/J25</f>
-        <v>0.98378378378378384</v>
+        <v>1.1513513513513514</v>
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="23" t="e">
@@ -5227,9 +5225,9 @@
         <v>1.25</v>
       </c>
       <c r="J58" s="16"/>
-      <c r="K58" s="23" t="e">
+      <c r="K58" s="23">
         <f>K10/J10</f>
-        <v>#DIV/0!</v>
+        <v>0.95744680851063835</v>
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="23" t="e">
@@ -5273,9 +5271,9 @@
         <v>1.3611111111111112</v>
       </c>
       <c r="J59" s="16"/>
-      <c r="K59" s="23" t="e">
+      <c r="K59" s="23">
         <f>K9/J9</f>
-        <v>#DIV/0!</v>
+        <v>0.85</v>
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="23" t="e">
@@ -5380,7 +5378,7 @@
       </c>
       <c r="K62" s="23">
         <f t="shared" si="22"/>
-        <v>4.9450549450549448E-2</v>
+        <v>4.2253521126760563E-2</v>
       </c>
       <c r="L62" s="23" t="e">
         <f t="shared" si="22"/>
@@ -5581,7 +5579,7 @@
       </c>
       <c r="K65" s="23">
         <f t="shared" si="25"/>
-        <v>1.6483516483516484E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="L65" s="23" t="e">
         <f t="shared" si="25"/>
@@ -5715,7 +5713,7 @@
       </c>
       <c r="K67" s="23">
         <f t="shared" si="27"/>
-        <v>3.2967032967032968E-2</v>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="L67" s="23" t="e">
         <f t="shared" si="27"/>
@@ -5866,13 +5864,13 @@
         <f t="shared" si="29"/>
         <v>8.5714285714285719E-3</v>
       </c>
-      <c r="J70" s="23" t="e">
+      <c r="J70" s="23">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K70" s="23" t="e">
+        <v>1.9148936170212766E-2</v>
+      </c>
+      <c r="K70" s="23">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>0.02</v>
       </c>
       <c r="L70" s="23" t="e">
         <f t="shared" si="29"/>
@@ -5935,11 +5933,11 @@
       </c>
       <c r="J71" s="23">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1.0810810810810811</v>
       </c>
       <c r="K71" s="23">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.7981220657276995</v>
       </c>
       <c r="L71" s="23" t="e">
         <f t="shared" si="30"/>
@@ -6000,13 +5998,13 @@
         <f t="shared" si="31"/>
         <v>5.7142857142857143E-3</v>
       </c>
-      <c r="J72" s="23" t="e">
+      <c r="J72" s="23">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K72" s="23" t="e">
+        <v>1.0638297872340425E-2</v>
+      </c>
+      <c r="K72" s="23">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="L72" s="23" t="e">
         <f t="shared" si="31"/>
@@ -6067,13 +6065,13 @@
         <f t="shared" si="32"/>
         <v>8.1632653061224497E-3</v>
       </c>
-      <c r="J73" s="23" t="e">
+      <c r="J73" s="23">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K73" s="23" t="e">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K73" s="23">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>3.5294117647058823E-2</v>
       </c>
       <c r="L73" s="23" t="e">
         <f t="shared" si="32"/>
@@ -6187,7 +6185,7 @@
       </c>
       <c r="K76" s="23">
         <f t="shared" si="33"/>
-        <v>4.9450549450549448E-2</v>
+        <v>4.2253521126760563E-2</v>
       </c>
       <c r="L76" s="23" t="e">
         <f t="shared" si="33"/>
@@ -6514,7 +6512,7 @@
       </c>
       <c r="K81" s="24">
         <f t="shared" si="38"/>
-        <v>0.22222222222222221</v>
+        <v>0.13953488372093023</v>
       </c>
       <c r="L81" s="24" t="e">
         <f t="shared" si="38"/>
@@ -6573,9 +6571,9 @@
         <f t="shared" si="39"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K82" s="24" t="e">
+      <c r="K82" s="24">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="L82" s="24" t="e">
         <f t="shared" si="39"/>
